--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N2">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q2">
-        <v>0.6195341534905211</v>
+        <v>1.385703138997778</v>
       </c>
       <c r="R2">
-        <v>0.6195341534905211</v>
+        <v>12.47132825098</v>
       </c>
       <c r="S2">
-        <v>0.002058615549524828</v>
+        <v>0.004052948970806653</v>
       </c>
       <c r="T2">
-        <v>0.002058615549524828</v>
+        <v>0.004052948970806652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N3">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q3">
-        <v>11.01919665049432</v>
+        <v>13.23077283525778</v>
       </c>
       <c r="R3">
-        <v>11.01919665049432</v>
+        <v>119.07695551732</v>
       </c>
       <c r="S3">
-        <v>0.03661507511760863</v>
+        <v>0.03869778860746351</v>
       </c>
       <c r="T3">
-        <v>0.03661507511760863</v>
+        <v>0.03869778860746351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N4">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q4">
-        <v>0.5998907674146697</v>
+        <v>0.8334412162066666</v>
       </c>
       <c r="R4">
-        <v>0.5998907674146697</v>
+        <v>7.500970945859999</v>
       </c>
       <c r="S4">
-        <v>0.001993343635469349</v>
+        <v>0.002437675591826794</v>
       </c>
       <c r="T4">
-        <v>0.001993343635469349</v>
+        <v>0.002437675591826794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N5">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q5">
-        <v>7.150011024604664</v>
+        <v>9.251925899213333</v>
       </c>
       <c r="R5">
-        <v>7.150011024604664</v>
+        <v>83.26733309292</v>
       </c>
       <c r="S5">
-        <v>0.02375837359667099</v>
+        <v>0.02706032951496131</v>
       </c>
       <c r="T5">
-        <v>0.02375837359667099</v>
+        <v>0.0270603295149613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N6">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q6">
-        <v>7.477784102497877</v>
+        <v>14.14293544496311</v>
       </c>
       <c r="R6">
-        <v>7.477784102497877</v>
+        <v>127.286419004668</v>
       </c>
       <c r="S6">
-        <v>0.02484751251026424</v>
+        <v>0.04136571105504302</v>
       </c>
       <c r="T6">
-        <v>0.02484751251026424</v>
+        <v>0.041365711055043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N7">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q7">
-        <v>133.0018257607246</v>
+        <v>135.0375566236791</v>
       </c>
       <c r="R7">
-        <v>133.0018257607246</v>
+        <v>1215.338009613112</v>
       </c>
       <c r="S7">
-        <v>0.4419443626854197</v>
+        <v>0.3949621753285666</v>
       </c>
       <c r="T7">
-        <v>0.4419443626854197</v>
+        <v>0.3949621753285666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N8">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q8">
-        <v>7.240688214741501</v>
+        <v>8.506371232230666</v>
       </c>
       <c r="R8">
-        <v>7.240688214741501</v>
+        <v>76.55734109007599</v>
       </c>
       <c r="S8">
-        <v>0.02405967978382983</v>
+        <v>0.0248797073202155</v>
       </c>
       <c r="T8">
-        <v>0.02405967978382983</v>
+        <v>0.02487970732021549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N9">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q9">
-        <v>86.3007123517547</v>
+        <v>94.42815495734133</v>
       </c>
       <c r="R9">
-        <v>86.3007123517547</v>
+        <v>849.853394616072</v>
       </c>
       <c r="S9">
-        <v>0.2867638327627886</v>
+        <v>0.2761864952736761</v>
       </c>
       <c r="T9">
-        <v>0.2867638327627886</v>
+        <v>0.2761864952736759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N10">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q10">
-        <v>0.2645215839437742</v>
+        <v>0.5291622185833333</v>
       </c>
       <c r="R10">
-        <v>0.2645215839437742</v>
+        <v>4.76245996725</v>
       </c>
       <c r="S10">
-        <v>0.0008789640455228304</v>
+        <v>0.001547710623466031</v>
       </c>
       <c r="T10">
-        <v>0.0008789640455228304</v>
+        <v>0.00154771062346603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N11">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q11">
-        <v>4.704850144829482</v>
+        <v>5.052471131833333</v>
       </c>
       <c r="R11">
-        <v>4.704850144829482</v>
+        <v>45.4722401865</v>
       </c>
       <c r="S11">
-        <v>0.01563348462996124</v>
+        <v>0.01477762956400944</v>
       </c>
       <c r="T11">
-        <v>0.01563348462996124</v>
+        <v>0.01477762956400944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N12">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q12">
-        <v>0.2561344763573274</v>
+        <v>0.31826845925</v>
       </c>
       <c r="R12">
-        <v>0.2561344763573274</v>
+        <v>2.86441613325</v>
       </c>
       <c r="S12">
-        <v>0.0008510949926292657</v>
+        <v>0.0009308817942712155</v>
       </c>
       <c r="T12">
-        <v>0.0008510949926292657</v>
+        <v>0.0009308817942712153</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N13">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q13">
-        <v>3.052829663688285</v>
+        <v>3.5330580535</v>
       </c>
       <c r="R13">
-        <v>3.052829663688285</v>
+        <v>31.7975224815</v>
       </c>
       <c r="S13">
-        <v>0.01014407774020405</v>
+        <v>0.01033360147548598</v>
       </c>
       <c r="T13">
-        <v>0.01014407774020405</v>
+        <v>0.01033360147548597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H14">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N14">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q14">
-        <v>1.254461766712442</v>
+        <v>3.121815167220666</v>
       </c>
       <c r="R14">
-        <v>1.254461766712442</v>
+        <v>28.096336504986</v>
       </c>
       <c r="S14">
-        <v>0.004168381169446105</v>
+        <v>0.00913078509599587</v>
       </c>
       <c r="T14">
-        <v>0.004168381169446105</v>
+        <v>0.009130785095995868</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H15">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N15">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q15">
-        <v>22.31218540584047</v>
+        <v>29.80726978870267</v>
       </c>
       <c r="R15">
-        <v>22.31218540584047</v>
+        <v>268.265428098324</v>
       </c>
       <c r="S15">
-        <v>0.07413991877858091</v>
+        <v>0.08718125838991295</v>
       </c>
       <c r="T15">
-        <v>0.07413991877858091</v>
+        <v>0.08718125838991295</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H16">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N16">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q16">
-        <v>1.214686918688178</v>
+        <v>1.877638403578</v>
       </c>
       <c r="R16">
-        <v>1.214686918688178</v>
+        <v>16.898745632202</v>
       </c>
       <c r="S16">
-        <v>0.004036215541189113</v>
+        <v>0.00549177700559478</v>
       </c>
       <c r="T16">
-        <v>0.004036215541189113</v>
+        <v>0.005491777005594779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H17">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N17">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q17">
-        <v>14.47767715694828</v>
+        <v>20.843427271916</v>
       </c>
       <c r="R17">
-        <v>14.47767715694828</v>
+        <v>187.590845447244</v>
       </c>
       <c r="S17">
-        <v>0.04810706746089041</v>
+        <v>0.06096352438870442</v>
       </c>
       <c r="T17">
-        <v>0.04810706746089041</v>
+        <v>0.0609635243887044</v>
       </c>
     </row>
   </sheetData>
